--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3696.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3696.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3696</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adil Usman Rashid</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3005</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3009</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3015</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3017</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +765,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>22/11/2009</t>
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3058</t>
+          <t>3058</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3800</t>
+          <t>3800</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1270,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>11/09/2015</t>
@@ -1216,7 +1277,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1268,7 +1329,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1320,7 +1381,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1421,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>13/11/2015</t>
@@ -1368,7 +1428,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1468,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -1416,7 +1475,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1456,7 +1515,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>20/11/2015</t>
@@ -1464,7 +1522,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1516,7 +1574,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1556,7 +1614,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -1564,7 +1621,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1616,7 +1673,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1668,7 +1725,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1720,7 +1777,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1760,7 +1817,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1808,7 +1864,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -1816,7 +1871,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1856,7 +1911,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -1864,7 +1918,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1904,7 +1958,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -1912,7 +1965,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1952,7 +2005,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>02/07/2016</t>
@@ -1960,7 +2012,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2000,7 +2052,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -2008,7 +2059,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2048,7 +2099,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>27/08/2016</t>
@@ -2056,7 +2106,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2096,7 +2146,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -2104,7 +2153,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2144,7 +2193,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/09/2016</t>
@@ -2152,7 +2200,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2192,7 +2240,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>07/10/2016</t>
@@ -2200,7 +2247,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2252,7 +2299,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2339,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>12/10/2016</t>
@@ -2300,7 +2346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2340,7 +2386,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -2348,7 +2393,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2388,7 +2433,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>03/03/2017</t>
@@ -2396,7 +2440,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2436,7 +2480,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>05/03/2017</t>
@@ -2444,7 +2487,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2496,7 +2539,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2536,7 +2579,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>05/05/2017</t>
@@ -2544,7 +2586,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2596,7 +2638,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2636,7 +2678,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -2644,7 +2685,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2684,7 +2725,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -2692,7 +2732,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2744,7 +2784,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2796,7 +2836,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2836,7 +2876,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>10/06/2017</t>
@@ -2844,7 +2883,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2896,7 +2935,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2936,7 +2975,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -2944,7 +2982,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2984,7 +3022,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -2992,7 +3029,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3044,7 +3081,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3084,7 +3121,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>27/09/2017</t>
@@ -3092,7 +3128,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3132,7 +3168,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -3140,7 +3175,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3180,7 +3215,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>14/01/2018</t>
@@ -3188,7 +3222,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3228,7 +3262,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -3236,7 +3269,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3276,7 +3309,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -3284,7 +3316,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3336,7 +3368,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3388,7 +3420,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3428,7 +3460,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>25/02/2018</t>
@@ -3436,7 +3467,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3476,7 +3507,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -3484,7 +3514,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3536,7 +3566,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3588,7 +3618,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3628,7 +3658,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -3636,7 +3665,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3688,7 +3717,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3728,7 +3757,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>13/06/2018</t>
@@ -3736,7 +3764,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3788,7 +3816,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3828,7 +3856,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>19/06/2018</t>
@@ -3836,7 +3863,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3876,7 +3903,6 @@
           <t>69</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>21/06/2018</t>
@@ -3884,7 +3910,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3936,7 +3962,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3988,7 +4014,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4028,7 +4054,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>14/07/2018</t>
@@ -4036,7 +4061,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4076,7 +4101,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -4084,7 +4108,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4124,7 +4148,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4132,7 +4155,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4184,7 +4207,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4224,7 +4247,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -4232,7 +4254,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4272,7 +4294,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -4280,7 +4301,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4332,7 +4353,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4372,7 +4393,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -4380,7 +4400,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4432,7 +4452,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4472,7 +4492,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -4480,7 +4499,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4520,7 +4539,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>27/02/2019</t>
@@ -4528,7 +4546,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4580,7 +4598,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4620,7 +4638,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>03/05/2019</t>
@@ -4628,7 +4645,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4668,7 +4685,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -4676,7 +4692,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4716,7 +4732,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -4724,7 +4739,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4776,7 +4791,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4828,7 +4843,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4868,7 +4883,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>30/05/2019</t>
@@ -4876,7 +4890,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4928,7 +4942,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4968,7 +4982,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -4976,7 +4989,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5016,7 +5029,6 @@
           <t>92</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -5024,7 +5036,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5064,7 +5076,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>18/06/2019</t>
@@ -5072,7 +5083,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5124,7 +5135,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5176,7 +5187,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5216,7 +5227,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>30/06/2019</t>
@@ -5224,7 +5234,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5276,7 +5286,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5316,7 +5326,6 @@
           <t>98</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -5324,7 +5333,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5376,7 +5385,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5428,7 +5437,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5468,7 +5477,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>30/07/2020</t>
@@ -5476,7 +5484,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5516,7 +5524,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>01/08/2020</t>
@@ -5524,7 +5531,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5576,7 +5583,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5628,7 +5635,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5680,7 +5687,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5732,7 +5739,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5784,7 +5791,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5824,7 +5831,6 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -5832,7 +5838,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5884,7 +5890,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5924,7 +5930,6 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>29/06/2021</t>
@@ -5932,7 +5937,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5972,7 +5977,6 @@
           <t>111</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -5980,7 +5984,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6020,7 +6024,6 @@
           <t>112</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -6028,7 +6031,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6068,7 +6071,6 @@
           <t>113</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -6076,7 +6078,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6116,7 +6118,6 @@
           <t>114</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -6124,7 +6125,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6164,7 +6165,6 @@
           <t>115</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>22/06/2022</t>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4602</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6316,7 +6316,6 @@
           <t>118</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -6324,7 +6323,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6376,7 +6375,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6428,7 +6427,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6480,7 +6479,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6532,7 +6531,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6584,7 +6583,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6636,7 +6635,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6688,7 +6687,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6727,7 +6726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6749,7 +6748,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6786,7 +6785,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3005</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6823,7 +6822,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3009</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6860,7 +6859,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3015</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6897,7 +6896,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3017</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6934,7 +6933,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3058</t>
+          <t>3058</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6971,7 +6970,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7008,7 +7007,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -7045,7 +7044,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7082,7 +7081,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -7119,7 +7118,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -7156,7 +7155,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7193,7 +7192,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7230,7 +7229,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -7267,7 +7266,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -7304,7 +7303,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -7341,7 +7340,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7378,7 +7377,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7415,7 +7414,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7452,7 +7451,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7489,7 +7488,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7526,7 +7525,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7563,7 +7562,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7600,7 +7599,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7637,7 +7636,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7674,7 +7673,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7711,7 +7710,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7748,7 +7747,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7785,7 +7784,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7822,7 +7821,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7859,7 +7858,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7896,7 +7895,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7933,7 +7932,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7970,7 +7969,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8007,7 +8006,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8044,7 +8043,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8081,7 +8080,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8118,7 +8117,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8155,7 +8154,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8192,7 +8191,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8229,7 +8228,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8266,7 +8265,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8303,7 +8302,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8340,7 +8339,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8377,7 +8376,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8414,7 +8413,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8451,7 +8450,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8488,7 +8487,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8525,7 +8524,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8562,7 +8561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8599,7 +8598,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8636,7 +8635,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -8673,7 +8672,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8710,7 +8709,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8747,7 +8746,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8784,7 +8783,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8821,7 +8820,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8858,7 +8857,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8895,7 +8894,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8932,7 +8931,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8969,7 +8968,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -9006,7 +9005,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -9043,7 +9042,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -9080,7 +9079,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -9117,7 +9116,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -9154,7 +9153,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -9191,7 +9190,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -9228,7 +9227,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -9265,7 +9264,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -9302,7 +9301,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9339,7 +9338,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -9376,7 +9375,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -9413,7 +9412,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -9450,7 +9449,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -9487,7 +9486,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9524,7 +9523,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9561,7 +9560,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9598,7 +9597,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9635,7 +9634,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9672,7 +9671,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9709,7 +9708,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9746,7 +9745,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9783,7 +9782,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9820,7 +9819,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9857,7 +9856,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9894,7 +9893,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9931,7 +9930,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9968,7 +9967,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10005,7 +10004,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10042,7 +10041,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10079,7 +10078,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10116,7 +10115,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10153,7 +10152,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10190,7 +10189,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10227,7 +10226,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10264,7 +10263,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10301,7 +10300,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10338,7 +10337,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10375,7 +10374,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10412,7 +10411,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10449,7 +10448,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -10486,7 +10485,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10523,7 +10522,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -10560,7 +10559,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -10597,7 +10596,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -10634,7 +10633,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -10671,7 +10670,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -10708,7 +10707,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -10745,7 +10744,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -10782,7 +10781,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4602</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -10819,7 +10818,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -10856,7 +10855,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -10893,7 +10892,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -10930,7 +10929,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -10967,7 +10966,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -11004,7 +11003,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -11041,7 +11040,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -11078,7 +11077,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -11115,7 +11114,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -11152,7 +11151,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -11180,6 +11179,509 @@
           <t>2/21</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.64%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.90%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.97%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.02%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.84%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.08%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3696.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3696.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11280,7 +11281,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11293,15 +11293,430 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.90%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5.97%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.17%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.02%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.84%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>4.08%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11309,27 +11724,14 @@
           <t>4457</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.90%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -11339,17 +11741,12 @@
           <t>4469</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -11357,15 +11754,12 @@
           <t>4470</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -11375,13 +11769,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -11391,13 +11778,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -11405,17 +11785,8 @@
           <t>4599</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -11423,13 +11794,14 @@
           <t>4602</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -11439,29 +11811,8 @@
           <t>4619</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.97%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11469,13 +11820,14 @@
           <t>4620</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -11487,13 +11839,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11501,29 +11846,8 @@
           <t>4663</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.17%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11531,23 +11855,14 @@
           <t>4698</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -11557,27 +11872,14 @@
           <t>4699</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -11587,27 +11889,14 @@
           <t>4700</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>9</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8.02%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -11617,27 +11906,14 @@
           <t>4711</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.84%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -11647,27 +11923,14 @@
           <t>4713</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>9</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.08%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -11677,11 +11940,16 @@
           <t>4717</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3696.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3696.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -825,7 +824,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4505,7 +4504,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4698,7 +4697,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6037,7 +6036,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6329,7 +6328,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -11281,6 +11280,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11293,6 +11293,10 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11338,6 +11342,9 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11350,6 +11357,10 @@
           <t>4470</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11362,6 +11373,10 @@
           <t>4471</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11374,6 +11389,10 @@
           <t>4598</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11389,6 +11408,9 @@
       <c r="B10" t="n">
         <v>10</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11401,6 +11423,10 @@
           <t>4602</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11443,6 +11469,10 @@
           <t>4620</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11455,6 +11485,10 @@
           <t>4622</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11510,6 +11544,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11642,314 +11677,11 @@
           <t>4717</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3696.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3696.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -765,6 +764,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>22/11/2009</t>
@@ -812,6 +812,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>08/05/2015</t>
@@ -1015,6 +1016,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -1270,6 +1272,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>11/09/2015</t>
@@ -1421,6 +1424,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>13/11/2015</t>
@@ -1468,6 +1472,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>17/11/2015</t>
@@ -1515,6 +1520,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>20/11/2015</t>
@@ -1614,6 +1620,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>06/02/2016</t>
@@ -1817,6 +1824,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>21/06/2016</t>
@@ -1864,6 +1872,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -1911,6 +1920,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -1958,6 +1968,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -2005,6 +2016,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>02/07/2016</t>
@@ -2052,6 +2064,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -2099,6 +2112,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>27/08/2016</t>
@@ -2146,6 +2160,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -2193,6 +2208,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/09/2016</t>
@@ -2240,6 +2256,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>07/10/2016</t>
@@ -2339,6 +2356,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>12/10/2016</t>
@@ -2386,6 +2404,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -2433,6 +2452,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>03/03/2017</t>
@@ -2480,6 +2500,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>05/03/2017</t>
@@ -2579,6 +2600,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>05/05/2017</t>
@@ -2678,6 +2700,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -2725,6 +2748,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -2876,6 +2900,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>10/06/2017</t>
@@ -2975,6 +3000,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -3022,6 +3048,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -3121,6 +3148,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>27/09/2017</t>
@@ -3168,6 +3196,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -3215,6 +3244,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>14/01/2018</t>
@@ -3262,6 +3292,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -3309,6 +3340,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -3460,6 +3492,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>25/02/2018</t>
@@ -3507,6 +3540,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -3658,6 +3692,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -3757,6 +3792,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>13/06/2018</t>
@@ -3856,6 +3892,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>19/06/2018</t>
@@ -3903,6 +3940,7 @@
           <t>69</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>21/06/2018</t>
@@ -4054,6 +4092,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>14/07/2018</t>
@@ -4101,6 +4140,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -4148,6 +4188,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4247,6 +4288,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -4294,6 +4336,7 @@
           <t>77</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -4393,6 +4436,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -4492,6 +4536,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -4539,6 +4584,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>27/02/2019</t>
@@ -4638,6 +4684,7 @@
           <t>84</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>03/05/2019</t>
@@ -4685,6 +4732,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -4732,6 +4780,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -4883,6 +4932,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>30/05/2019</t>
@@ -4982,6 +5032,7 @@
           <t>91</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -5029,6 +5080,7 @@
           <t>92</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -5076,6 +5128,7 @@
           <t>93</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>18/06/2019</t>
@@ -5227,6 +5280,7 @@
           <t>96</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>30/06/2019</t>
@@ -5326,6 +5380,7 @@
           <t>98</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -5477,6 +5532,7 @@
           <t>101</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>30/07/2020</t>
@@ -5524,6 +5580,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>01/08/2020</t>
@@ -5831,6 +5888,7 @@
           <t>108</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -5930,6 +5988,7 @@
           <t>110</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
           <t>29/06/2021</t>
@@ -5977,6 +6036,7 @@
           <t>111</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -6024,6 +6084,7 @@
           <t>112</t>
         </is>
       </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -6071,6 +6132,7 @@
           <t>113</t>
         </is>
       </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>17/06/2022</t>
@@ -6118,6 +6180,7 @@
           <t>114</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -6165,6 +6228,7 @@
           <t>115</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>22/06/2022</t>
@@ -6316,6 +6380,7 @@
           <t>118</t>
         </is>
       </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -11183,507 +11248,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.64%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.90%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.97%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.17%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8.02%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.84%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.08%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>